--- a/monitoring/transactions_1.xlsx
+++ b/monitoring/transactions_1.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Rodrigo\Profissional\monitoring_alert_system\monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{646979AE-7608-4B3F-9691-4F443C112AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B562122F-73F0-4A4C-A376-CDF7185033BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="transactions_1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8480" uniqueCount="1334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8471" uniqueCount="1332">
   <si>
     <t>time</t>
   </si>
@@ -4016,12 +4016,6 @@
   </si>
   <si>
     <t>23h 59</t>
-  </si>
-  <si>
-    <t>IF(C2="approved";D2 +(-30+60*RAND()); IF(C2="denied"; D2 + (-4+8*RAND()); IF(C2="refunded"; D2+(-2+4*RAND()); IF(C2="reversed"; D2+(-15+30*RAND()); IF(C2="backend_reversed"; D2 + (-5+10*RAND()); IF(C2="failed";D2 + (-1+2*RAND()); D2 + (-2+4*RAND())))))))</t>
-  </si>
-  <si>
-    <t>IF(C2="approved";D2 +RANDBETWEEN(0;30); IF(C2="denied"; D2 + RANDBETWEEN(0;4); IF(C2="refunded"; D2+RANDBETWEEN(0;2); IF(C2="reversed"; D2+RANDBETWEEN(0;10); IF(C2="backend_reversed"; D2 + RANDBETWEEN(0;7); IF(C2="failed";D2 +RANDBETWEEN(0;2); D2 +RANDBETWEEN(0;3)))))))</t>
   </si>
 </sst>
 </file>
@@ -4387,10 +4381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4235"/>
+  <dimension ref="A1:G4235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4398,7 +4392,7 @@
     <col min="8" max="8" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4409,7 +4403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4422,15 +4416,8 @@
       <c r="D2" s="3">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="str">
-        <f>"-30 + 60 * RAND()"</f>
-        <v>-30 + 60 * RAND()</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4443,15 +4430,8 @@
       <c r="D3">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="str">
-        <f>"-4+8*RAND()"</f>
-        <v>-4+8*RAND()</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4464,15 +4444,8 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="str">
-        <f>"-2+4"</f>
-        <v>-2+4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4485,15 +4458,8 @@
       <c r="D5">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="str">
-        <f>"-15+30"</f>
-        <v>-15+30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4506,15 +4472,8 @@
       <c r="D6">
         <v>27</v>
       </c>
-      <c r="H6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" t="str">
-        <f>"-15+30"</f>
-        <v>-15+30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4527,15 +4486,8 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="H7" t="s">
-        <v>461</v>
-      </c>
-      <c r="I7" t="str">
-        <f>"-1+2"</f>
-        <v>-1+2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4548,15 +4500,8 @@
       <c r="D8">
         <v>35</v>
       </c>
-      <c r="H8" t="s">
-        <v>800</v>
-      </c>
-      <c r="I8" t="str">
-        <f>"-2+4"</f>
-        <v>-2+4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4569,11 +4514,9 @@
       <c r="D9">
         <v>8</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4587,7 +4530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4600,11 +4543,8 @@
       <c r="D11">
         <v>21</v>
       </c>
-      <c r="H11" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4618,7 +4558,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4632,7 +4572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4646,7 +4586,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4660,7 +4600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
